--- a/biology/Zoologie/Anthornis_melanocephala/Anthornis_melanocephala.xlsx
+++ b/biology/Zoologie/Anthornis_melanocephala/Anthornis_melanocephala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthornis melanocephala est une espèce éteinte d’oiseaux de la famille des Meliphagidae. D'apparence très semblable au Méliphage carillonneur, il était néanmoins plus grand et fut observé pour la dernière fois en 1906.
-Il est parfois classé comme sous-espèce de Anthornis melanura[1],[2],[3]. 
+Il est parfois classé comme sous-espèce de Anthornis melanura. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce était endémique des îles Chatham.
 </t>
